--- a/card_list.xlsx
+++ b/card_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F71BC75-AD4B-42B0-BCD3-81A22F65AEE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD4281F-EAF7-4877-8236-24EA4145DCAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,30 +20,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>id;</t>
-  </si>
-  <si>
-    <t>src;</t>
-  </si>
-  <si>
-    <t>gun_short;</t>
-  </si>
-  <si>
-    <t>sword_short;</t>
-  </si>
-  <si>
-    <t>arrow_short;</t>
-  </si>
-  <si>
-    <t>attack;</t>
-  </si>
-  <si>
-    <t>exp;</t>
-  </si>
-  <si>
-    <t>soul;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>friend_gun</t>
+  </si>
+  <si>
+    <t>friend_sword</t>
+  </si>
+  <si>
+    <t>friend_arrow</t>
+  </si>
+  <si>
+    <t>c1_13.png</t>
+  </si>
+  <si>
+    <t>c1_14.png</t>
+  </si>
+  <si>
+    <t>c1_15.png</t>
+  </si>
+  <si>
+    <t>c1_16.png</t>
+  </si>
+  <si>
+    <t>c1_17.png</t>
+  </si>
+  <si>
+    <t>c1_18.png</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>c1_19.png</t>
+  </si>
+  <si>
+    <t>c1_20.png</t>
+  </si>
+  <si>
+    <t>c1_21.png</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>isTrap</t>
+  </si>
+  <si>
+    <t>c1_22.png</t>
+  </si>
+  <si>
+    <t>c1_23.png</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>restUp</t>
+  </si>
+  <si>
+    <t>c1_24.png</t>
   </si>
 </sst>
 </file>
@@ -86,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -368,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -381,30 +435,269 @@
     <col min="6" max="6" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/card_list.xlsx
+++ b/card_list.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD4281F-EAF7-4877-8236-24EA4145DCAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1E9CF5-140B-4609-BCD4-08EB0DBF7378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -37,64 +39,161 @@
     <t>friend_arrow</t>
   </si>
   <si>
+    <t>c1_14.png</t>
+  </si>
+  <si>
+    <t>c1_15.png</t>
+  </si>
+  <si>
+    <t>c1_16.png</t>
+  </si>
+  <si>
+    <t>c1_17.png</t>
+  </si>
+  <si>
+    <t>c1_18.png</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>c1_19.png</t>
+  </si>
+  <si>
+    <t>c1_20.png</t>
+  </si>
+  <si>
+    <t>c1_21.png</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>isTrap</t>
+  </si>
+  <si>
+    <t>c1_22.png</t>
+  </si>
+  <si>
+    <t>c1_23.png</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>restUp</t>
+  </si>
+  <si>
+    <t>c1_24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小怪建立													</t>
+  </si>
+  <si>
+    <t>gun_short</t>
+  </si>
+  <si>
+    <t>sword_short</t>
+  </si>
+  <si>
+    <t>arrow_short</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
     <t>c1_13.png</t>
-  </si>
-  <si>
-    <t>c1_14.png</t>
-  </si>
-  <si>
-    <t>c1_15.png</t>
-  </si>
-  <si>
-    <t>c1_16.png</t>
-  </si>
-  <si>
-    <t>c1_17.png</t>
-  </si>
-  <si>
-    <t>c1_18.png</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>arrow</t>
-  </si>
-  <si>
-    <t>c1_19.png</t>
-  </si>
-  <si>
-    <t>c1_20.png</t>
-  </si>
-  <si>
-    <t>c1_21.png</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>isTrap</t>
-  </si>
-  <si>
-    <t>c1_22.png</t>
-  </si>
-  <si>
-    <t>c1_23.png</t>
-  </si>
-  <si>
-    <t>treat</t>
-  </si>
-  <si>
-    <t>restUp</t>
-  </si>
-  <si>
-    <t>c1_24.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">夥伴													</t>
+  </si>
+  <si>
+    <t>三重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器破壞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治癒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器破壞者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1_1.png</t>
+  </si>
+  <si>
+    <t>c1_2.png</t>
+  </si>
+  <si>
+    <t>c1_3.png</t>
+  </si>
+  <si>
+    <t>c1_4.png</t>
+  </si>
+  <si>
+    <t>c1_5.png</t>
+  </si>
+  <si>
+    <t>c1_6.png</t>
+  </si>
+  <si>
+    <t>c1_7.png</t>
+  </si>
+  <si>
+    <t>c1_8.png</t>
+  </si>
+  <si>
+    <t>c1_9.png</t>
+  </si>
+  <si>
+    <t>c1_10.png</t>
+  </si>
+  <si>
+    <t>c1_11.png</t>
+  </si>
+  <si>
+    <t>c1_12.png</t>
   </si>
 </sst>
 </file>
@@ -422,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -457,7 +556,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -474,7 +573,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -491,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -508,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -525,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -542,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -556,7 +655,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -581,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -598,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -615,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -635,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -660,7 +759,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -672,7 +771,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,25 +779,2221 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD57DE82-F876-4102-85DB-F844929DF8A0}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="5" width="14.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"c2_"&amp;A3&amp;".png"</f>
+        <v>c2_1.png</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B33" si="0">"c2_"&amp;A4&amp;".png"</f>
+        <v>c2_2.png</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_3.png</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_4.png</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_5.png</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_6.png</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_7.png</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_8.png</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_9.png</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_10.png</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_11.png</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_12.png</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_13.png</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_14.png</v>
+      </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_15.png</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_16.png</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_17.png</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>18</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_18.png</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>19</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_19.png</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>20</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_20.png</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_21.png</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_22.png</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>c2_23.png</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FD798D-8889-43F3-B0E7-0C6958BF5AF2}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="5" width="14.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"c3_"&amp;A3&amp;".png"</f>
+        <v>c3_1.png</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B14" si="0">"c3_"&amp;A4&amp;".png"</f>
+        <v>c3_2.png</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_3.png</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_4.png</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_5.png</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_6.png</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_7.png</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_8.png</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_9.png</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_10.png</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_11.png</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>c3_12.png</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"c3_"&amp;A17&amp;".png"</f>
+        <v>c3_13.png</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:B19" si="1">"c3_"&amp;A18&amp;".png"</f>
+        <v>c3_14.png</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>c3_15.png</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"c3_"&amp;A22&amp;".png"</f>
+        <v>c3_16.png</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"c3_"&amp;A23&amp;".png"</f>
+        <v>c3_17.png</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"c3_"&amp;A24&amp;".png"</f>
+        <v>c3_18.png</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ref="B25:B26" si="2">"c3_"&amp;A25&amp;".png"</f>
+        <v>c3_19.png</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="2"/>
+        <v>c3_20.png</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"c3_"&amp;A29&amp;".png"</f>
+        <v>c3_21.png</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>22</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"c3_"&amp;A30&amp;".png"</f>
+        <v>c3_22.png</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
